--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_032.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -454,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -845,7 +857,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -868,7 +880,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -914,7 +926,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -937,7 +949,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -1029,7 +1041,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1052,7 +1064,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1075,7 +1087,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1098,7 +1110,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1437,709 +1449,709 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2162,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2185,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2208,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,185 +2231,277 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>20</v>
       </c>
     </row>
